--- a/kazanimlar.xlsx
+++ b/kazanimlar.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jahan\Documents\DinamikRubrik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024AD1D1-A054-4804-88B9-0367FEDA354E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C0FB1C-E942-4085-80E5-B6506CA11951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="9. Sınıf" sheetId="8" r:id="rId1"/>
+    <sheet name="Hazirlik_Sinifi" sheetId="9" r:id="rId1"/>
+    <sheet name="9_Sinif" sheetId="8" r:id="rId2"/>
+    <sheet name="10_Sinif_Akademik" sheetId="10" r:id="rId3"/>
+    <sheet name="10_Sinif_Meslek" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="68">
   <si>
     <t>Tahmini_Ders_Saati</t>
   </si>
@@ -590,6 +593,9 @@
   </si>
   <si>
     <t>V1. Justice, V3. Diligence, V4. Friendship, V5. Sensitivity, V6. Honesty, V7. Aesthetics, V9. Compassion, V10. Modesty, V11. Independence, V12. Patience, V13. Healthy Living, V14. Respect, V16. Responsibility, V19. Patriotism, V20. Benevolence</t>
+  </si>
+  <si>
+    <t>Açıklamalar</t>
   </si>
 </sst>
 </file>
@@ -957,11 +963,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E49CEED-6EBB-4D51-B748-1F3137EB4F10}">
-  <dimension ref="A1:J33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258686C8-D552-4311-90F5-8E1CBC2FDC03}">
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -974,43 +980,46 @@
     <col min="6" max="6" width="21.36328125" style="3" customWidth="1"/>
     <col min="7" max="7" width="21.36328125" style="7" customWidth="1"/>
     <col min="8" max="8" width="21.36328125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.90625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.90625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="390" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="390" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1038,11 +1047,12 @@
       <c r="I2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="J2" s="4"/>
+      <c r="K2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1070,11 +1080,12 @@
       <c r="I3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="364" x14ac:dyDescent="0.35">
+      <c r="J3" s="4"/>
+      <c r="K3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="364" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1102,11 +1113,12 @@
       <c r="I4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="390" x14ac:dyDescent="0.35">
+      <c r="J4" s="4"/>
+      <c r="K4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="390" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1134,11 +1146,12 @@
       <c r="I5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4"/>
+      <c r="K5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="324" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="324" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1166,11 +1179,12 @@
       <c r="I6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4"/>
+      <c r="K6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="324" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="324" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -1198,11 +1212,12 @@
       <c r="I7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="324" x14ac:dyDescent="0.35">
+      <c r="J7" s="4"/>
+      <c r="K7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="324" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -1230,11 +1245,12 @@
       <c r="I8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="324" x14ac:dyDescent="0.35">
+      <c r="J8" s="4"/>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="324" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1262,11 +1278,12 @@
       <c r="I9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="325" x14ac:dyDescent="0.35">
+      <c r="J9" s="4"/>
+      <c r="K9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="325" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1294,11 +1311,12 @@
       <c r="I10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J10" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="325" x14ac:dyDescent="0.35">
+      <c r="J10" s="4"/>
+      <c r="K10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="325" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1326,11 +1344,12 @@
       <c r="I11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="325" x14ac:dyDescent="0.35">
+      <c r="J11" s="4"/>
+      <c r="K11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="325" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1358,11 +1377,12 @@
       <c r="I12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="325" x14ac:dyDescent="0.35">
+      <c r="J12" s="4"/>
+      <c r="K12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="325" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -1390,11 +1410,12 @@
       <c r="I13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4"/>
+      <c r="K13" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="324" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="324" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -1422,11 +1443,12 @@
       <c r="I14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4"/>
+      <c r="K14" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="324" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="324" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1454,11 +1476,12 @@
       <c r="I15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="324" x14ac:dyDescent="0.35">
+      <c r="J15" s="4"/>
+      <c r="K15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="324" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -1486,11 +1509,12 @@
       <c r="I16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J16" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="324" x14ac:dyDescent="0.35">
+      <c r="J16" s="4"/>
+      <c r="K16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="324" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1518,11 +1542,12 @@
       <c r="I17" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J17" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="324" x14ac:dyDescent="0.35">
+      <c r="J17" s="4"/>
+      <c r="K17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="324" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1550,11 +1575,12 @@
       <c r="I18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="324" x14ac:dyDescent="0.35">
+      <c r="J18" s="4"/>
+      <c r="K18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="324" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -1582,11 +1608,12 @@
       <c r="I19" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="324" x14ac:dyDescent="0.35">
+      <c r="J19" s="4"/>
+      <c r="K19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="324" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -1614,11 +1641,12 @@
       <c r="I20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J20" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="324" x14ac:dyDescent="0.35">
+      <c r="J20" s="4"/>
+      <c r="K20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="324" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1646,11 +1674,12 @@
       <c r="I21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="4"/>
+      <c r="K21" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="324" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="324" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
@@ -1678,11 +1707,12 @@
       <c r="I22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="4"/>
+      <c r="K22" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="324" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="324" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -1710,11 +1740,12 @@
       <c r="I23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J23" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="324" x14ac:dyDescent="0.35">
+      <c r="J23" s="4"/>
+      <c r="K23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="324" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
@@ -1742,11 +1773,12 @@
       <c r="I24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J24" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="324" x14ac:dyDescent="0.35">
+      <c r="J24" s="4"/>
+      <c r="K24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="324" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -1774,11 +1806,12 @@
       <c r="I25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J25" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="338" x14ac:dyDescent="0.35">
+      <c r="J25" s="4"/>
+      <c r="K25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="338" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -1806,11 +1839,12 @@
       <c r="I26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J26" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="338" x14ac:dyDescent="0.35">
+      <c r="J26" s="4"/>
+      <c r="K26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="338" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
@@ -1838,11 +1872,12 @@
       <c r="I27" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J27" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="338" x14ac:dyDescent="0.35">
+      <c r="J27" s="4"/>
+      <c r="K27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="338" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>9</v>
       </c>
@@ -1870,11 +1905,12 @@
       <c r="I28" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J28" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="338" x14ac:dyDescent="0.35">
+      <c r="J28" s="4"/>
+      <c r="K28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="338" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
@@ -1902,11 +1938,12 @@
       <c r="I29" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="4"/>
+      <c r="K29" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="324" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="324" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>10</v>
       </c>
@@ -1934,11 +1971,12 @@
       <c r="I30" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="4"/>
+      <c r="K30" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="324" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="324" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
@@ -1966,11 +2004,12 @@
       <c r="I31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J31" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="324" x14ac:dyDescent="0.35">
+      <c r="J31" s="4"/>
+      <c r="K31" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="324" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
@@ -1998,11 +2037,12 @@
       <c r="I32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J32" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="324" x14ac:dyDescent="0.35">
+      <c r="J32" s="4"/>
+      <c r="K32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="324" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
@@ -2030,7 +2070,3365 @@
       <c r="I33" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="4"/>
+      <c r="K33" s="1">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E49CEED-6EBB-4D51-B748-1F3137EB4F10}">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.90625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="47.453125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.90625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="47.453125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="21.36328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.36328125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="21.36328125" style="3" customWidth="1"/>
+    <col min="9" max="10" width="18.90625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="390" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="364" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="390" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="325" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="325" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="325" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="325" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="338" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="338" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="338" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="338" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="1">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDB329F-C41E-4218-ACD6-104ACFF3082B}">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.90625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="47.453125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.90625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="47.453125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="21.36328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.36328125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="21.36328125" style="3" customWidth="1"/>
+    <col min="9" max="10" width="18.90625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="390" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="364" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="390" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="325" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="325" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="325" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="325" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="338" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="338" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="338" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="338" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="1">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3148914B-C93F-4CF8-A70A-6DBB812E3456}">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.90625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="47.453125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.90625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="47.453125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="21.36328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.36328125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="21.36328125" style="3" customWidth="1"/>
+    <col min="9" max="10" width="18.90625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="390" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="364" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="390" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="325" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="325" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="325" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="325" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="338" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="338" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="338" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="338" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="324" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="1">
         <v>4</v>
       </c>
     </row>
